--- a/biology/Zoologie/Cassis_cornuta/Cassis_cornuta.xlsx
+++ b/biology/Zoologie/Cassis_cornuta/Cassis_cornuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Casque cornu, Fer à repasser, Casque tricoté, Tête de bœuf
-Cassis cornuta, communément nommé Casque cornu, Fer à repasser, Casque tricoté[1] ou encore Tête de bœuf[2], est une espèce de gastéropode marin de la famille des Cassidae.
+Cassis cornuta, communément nommé Casque cornu, Fer à repasser, Casque tricoté ou encore Tête de bœuf, est une espèce de gastéropode marin de la famille des Cassidae.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille de la coquille adulte varie de 15 cm à 39 cm[3].
-Ce gastéropode mange des mollusques et des oursins[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille de la coquille adulte varie de 15 cm à 39 cm.
+Ce gastéropode mange des mollusques et des oursins.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Fer à repasser (nom donné à cause de son rebord caractéristique qui évoque le rebord d'un fer à repasser) est présent dans les eaux tropicales de l'Indo-Pacifique, Mer Rouge incluse[5]. Il vit enfoui dans le sable.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fer à repasser (nom donné à cause de son rebord caractéristique qui évoque le rebord d'un fer à repasser) est présent dans les eaux tropicales de l'Indo-Pacifique, Mer Rouge incluse. Il vit enfoui dans le sable.
 </t>
         </is>
       </c>
